--- a/regions/10/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/10/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -61,11 +61,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,13 +609,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.7109375" style="1" customWidth="1"/>
@@ -626,7 +629,7 @@
     <col min="12" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
@@ -646,13 +649,13 @@
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="11">
         <v>2006</v>
@@ -699,8 +702,14 @@
       <c r="P3" s="17">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="17">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
@@ -749,8 +758,14 @@
       <c r="P4" s="24">
         <v>3572</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="24">
+        <v>4462.8999999999996</v>
+      </c>
+      <c r="R4" s="24">
+        <v>6149.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
@@ -799,8 +814,14 @@
       <c r="P5" s="24">
         <v>2437.6999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="24">
+        <v>3095.9</v>
+      </c>
+      <c r="R5" s="24">
+        <v>4216.6000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
@@ -849,8 +870,14 @@
       <c r="P6" s="38">
         <v>35857</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="38">
+        <v>37119</v>
+      </c>
+      <c r="R6" s="38">
+        <v>39931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>8</v>
       </c>
@@ -899,8 +926,14 @@
       <c r="P7" s="38">
         <v>35475</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1">
+      <c r="Q7" s="38">
+        <v>36543</v>
+      </c>
+      <c r="R7" s="38">
+        <v>39361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>13</v>
       </c>
@@ -949,8 +982,14 @@
       <c r="P8" s="24">
         <v>1548.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="24">
+        <v>1652.9</v>
+      </c>
+      <c r="R8" s="24">
+        <v>1798.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>2</v>
       </c>
@@ -999,8 +1038,14 @@
       <c r="P9" s="24">
         <v>1211.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="24">
+        <v>1629.7</v>
+      </c>
+      <c r="R9" s="24">
+        <v>2072.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>3</v>
       </c>
@@ -1049,8 +1094,14 @@
       <c r="P10" s="24">
         <v>670</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="24">
+        <v>741.5</v>
+      </c>
+      <c r="R10" s="24">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
@@ -1099,8 +1150,14 @@
       <c r="P11" s="24">
         <v>1226</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="24">
+        <v>1466.2</v>
+      </c>
+      <c r="R11" s="24">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1206,14 @@
       <c r="P12" s="24">
         <v>345.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="24">
+        <v>950.5</v>
+      </c>
+      <c r="R12" s="24">
+        <v>385.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>5</v>
       </c>
@@ -1199,8 +1262,14 @@
       <c r="P13" s="24">
         <v>2372.6999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+      <c r="Q13" s="24">
+        <v>3043.2</v>
+      </c>
+      <c r="R13" s="24">
+        <v>4068.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>10</v>
       </c>
@@ -1249,8 +1318,14 @@
       <c r="P14" s="24">
         <v>1202.0999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
+      <c r="Q14" s="24">
+        <v>1456.1</v>
+      </c>
+      <c r="R14" s="24">
+        <v>1993.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1268,7 +1343,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" s="15" customFormat="1">
+    <row r="16" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1363,7 @@
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="2"/>
       <c r="C17" s="10"/>
@@ -1306,7 +1381,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="10"/>
@@ -1324,52 +1399,52 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
     </row>
   </sheetData>

--- a/regions/10/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/10/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319FEBBF-4179-4D80-B5A8-8AB94915FFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="6315" windowWidth="20475" windowHeight="6510"/>
+    <workbookView xWindow="3390" yWindow="2550" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,11 +62,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,22 +209,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -236,16 +230,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,6 +389,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -433,6 +441,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -608,844 +633,873 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:P1"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="1" max="1" width="71.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="11">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="30"/>
+      <c r="B3" s="8">
         <v>2006</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>2007</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>2008</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>2009</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>2010</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="9">
         <v>2011</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <v>2012</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <v>2013</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <v>2014</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <v>2015</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="9">
         <v>2016</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="9">
         <v>2017</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="9">
         <v>2018</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="14">
         <v>2019</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="9">
         <v>2020</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="9">
         <v>2021</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="S3" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>1107.0790199999999</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>1207.5043900000001</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>1281.47595</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>1203.4974400000001</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>1506.0748900000001</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="15">
         <v>2147.2953600000001</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="17">
         <v>2547.1999999999998</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="17">
         <v>2652.7</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="18">
         <v>2884.6621</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="18">
         <v>3201.8544999999999</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="19">
         <v>2984.2</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="15">
         <v>3313.49595</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="15">
         <v>3446.0000199999999</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="20">
         <v>3941.9</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="20">
         <v>3572</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="20">
         <v>4462.8999999999996</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="20">
         <v>6149.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="S4" s="20">
+        <v>6046.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>828.38891999999998</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>858.35533999999996</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>869.98827000000006</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>842.16310999999996</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>1033.98714</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>1437.9345599999999</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="21">
         <v>1692.2</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="21">
         <v>1863</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="19">
         <v>1944.6</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="19">
         <v>2233.5</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="19">
         <v>2140.3000000000002</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="15">
         <v>2432.8154599999998</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="15">
         <v>2800.8084699999999</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="20">
         <v>2969.4</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="20">
         <v>2437.6999999999998</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="20">
         <v>3095.9</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="20">
         <v>4216.6000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="S5" s="20">
+        <v>4346.6000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>30149.714639999998</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>27335.459800000001</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>27742.01784</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <v>29428.33152</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="22">
         <v>28778.450840000001</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>28761.05803</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="17">
         <v>30506</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <v>31953</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="19">
         <v>32431</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="19">
         <v>33339</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="19">
         <v>35276</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="22">
         <v>35535.232150000003</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="22">
         <v>36309.322090000001</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="34">
         <v>36576</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="34">
         <v>35857</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="34">
         <v>37119</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="34">
         <v>39931</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="S6" s="34">
+        <v>40862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>30119.030770000001</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>27218.875120000001</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>27702.342089999998</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <v>29306.39215</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="22">
         <v>28742.544610000001</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>28642.917720000001</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <v>30280</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="17">
         <v>31867</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="19">
         <v>32181</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="19">
         <v>32439</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="19">
         <v>33933</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="22">
         <v>33949.155959999996</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="22">
         <v>35642.833169999998</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="34">
         <v>36300</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="34">
         <v>35475</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="34">
         <v>36543</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="34">
         <v>39361</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="S7" s="34">
+        <v>39913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>379.11857700000002</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>464.72141900000003</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>625.69705299999998</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>649.60463700000003</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>688.57245999999998</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="15">
         <v>832.18051500000001</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="17">
         <v>907.6</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="17">
         <v>1046.5999999999999</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="18">
         <v>1114.5999999999999</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="18">
         <v>1213.5</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="19">
         <v>1219.3</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="15">
         <v>1325.918799</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="15">
         <v>1437.423722</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="20">
         <v>1569.3</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="20">
         <v>1548.7</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="20">
         <v>1652.9</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="20">
         <v>1798.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="S8" s="20">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>379.08888000000002</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>446.67021999999997</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>421.43205999999998</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <v>376.50094000000001</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <v>484.90755999999999</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="15">
         <v>684.69547999999998</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="17">
         <v>766.5</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="17">
         <v>866.1</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="18">
         <v>930.8198000000001</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="18">
         <v>1146.7486000000001</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="19">
         <v>1043.8</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="15">
         <v>1233.82269</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="15">
         <v>1371.93579</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="23">
         <v>1459.4</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="20">
         <v>1211.7</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="20">
         <v>1629.7</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="20">
         <v>2072.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="S9" s="20">
+        <v>2231.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>164.56049999999999</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <v>182.655</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>210.11266000000001</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>228.66408000000001</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <v>238.17760000000001</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <v>286.41592000000003</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="17">
         <v>330.8</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="17">
         <v>401.5</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="18">
         <v>431.03159999999997</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="18">
         <v>473.10120000000001</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="19">
         <v>497.3</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="15">
         <v>540.93421999999998</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="15">
         <v>616.69551999999999</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="20">
         <v>693</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="20">
         <v>670</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="20">
         <v>741.5</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="20">
         <v>869</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="S10" s="20">
+        <v>1034.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>449.29998999999998</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15">
         <v>411.68529999999998</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>448.55632000000003</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="15">
         <v>465.66212999999999</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="15">
         <v>549.07961</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="15">
         <v>753.23928000000001</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="17">
         <v>925.8</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="17">
         <v>996.9</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="18">
         <v>1013.7886999999999</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="18">
         <v>1086.78</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="18">
         <v>1096.5999999999999</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="15">
         <v>1198.9929</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="15">
         <v>1428.87282</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="20">
         <v>1510</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="20">
         <v>1226</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="20">
         <v>1466.2</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="20">
         <v>2144</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="S11" s="20">
+        <v>2115.1999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>410.20039000000003</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>620.02823000000001</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>207.98965000000001</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>644.58984999999996</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>654.38079000000005</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <v>542.99532999999997</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="21">
         <v>605</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <v>521.9</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="18">
         <v>252.22470000000001</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="18">
         <v>523.83190000000002</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="19">
         <v>479.3</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="15">
         <v>1539.71849</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="15">
         <v>455.50346000000002</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="20">
         <v>238.9</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="20">
         <v>345.3</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="20">
         <v>950.5</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="20">
         <v>385.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="S12" s="20">
+        <v>596.29999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>863.08942999999999</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>864.62824999999998</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="15">
         <v>813.55164000000002</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="15">
         <v>1014.19419</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <v>1458.9629600000001</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="17">
         <v>1668.5</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="17">
         <v>1707.7</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="25">
         <v>1943.2568999999999</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="25">
         <v>2195.9668999999999</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="25">
         <v>1984.2</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="15">
         <v>2233.0307899999998</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="15">
         <v>2184.4627599999999</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="20">
         <v>2634.8</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="20">
         <v>2372.6999999999998</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="20">
         <v>3043.2</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="20">
         <v>4068.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="S13" s="20">
+        <v>4143.6000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="26">
         <v>428.21445</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <v>441.0292</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="26">
         <v>416.73592000000002</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
         <v>545.77990999999997</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="26">
         <v>793.02962000000002</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="27">
         <v>931.3</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="27">
         <v>872.3</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="28">
         <v>1041.8316</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="29">
         <v>1099.3136999999999</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="16">
         <v>966.4</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="26">
         <v>1068.1256599999999</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="26">
         <v>885.12279999999998</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="20">
         <v>1214.2</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="20">
         <v>1202.0999999999999</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="20">
         <v>1456.1</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="20">
         <v>1993.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="S14" s="20">
+        <v>1952.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75">
+      <c r="A15" s="32"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" s="12" customFormat="1">
+      <c r="A16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
+      <c r="A17" s="32"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
